--- a/legacy_openpyxl/sample/files/charts.xlsx
+++ b/legacy_openpyxl/sample/files/charts.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<s:workbook xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <s:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <s:bookViews>
     <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </s:bookViews>
   <s:sheets>
-    <s:sheet name="Numbers" sheetId="1" r:id="rId1"/>
-    <s:sheet name="Negative" sheetId="2" r:id="rId2"/>
-    <s:sheet name="Letters" sheetId="3" r:id="rId3"/>
-    <s:sheet name="Dates" sheetId="4" r:id="rId4"/>
-    <s:sheet name="Pie" sheetId="5" r:id="rId5"/>
-    <s:sheet name="Line" sheetId="6" r:id="rId6"/>
-    <s:sheet name="Scatter" sheetId="7" r:id="rId7"/>
+    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Numbers" sheetId="1" r:id="rId1"/>
+    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Negative" sheetId="2" r:id="rId2"/>
+    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Letters" sheetId="3" r:id="rId3"/>
+    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dates" sheetId="4" r:id="rId4"/>
+    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pie" sheetId="5" r:id="rId5"/>
+    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Line" sheetId="6" r:id="rId6"/>
+    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scatter" sheetId="7" r:id="rId7"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
@@ -26,28 +26,28 @@
     <t>A</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>B</t>
+    <t>D</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>D</t>
+    <t>F</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>F</t>
+    <t>H</t>
   </si>
   <si>
     <t>I</t>
-  </si>
-  <si>
-    <t>H</t>
   </si>
   <si>
     <t>J</t>
@@ -1066,20 +1066,20 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="95250" y="3810000"/>
     <xdr:ext cx="7620000" cy="3810000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Graphique 0"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
+        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
@@ -1091,20 +1091,20 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="95250" y="3810000"/>
     <xdr:ext cx="7620000" cy="3810000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Graphique 0"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
+        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
@@ -1116,20 +1116,20 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="95250" y="3810000"/>
     <xdr:ext cx="7620000" cy="3810000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Graphique 0"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
+        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
@@ -1141,20 +1141,20 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="95250" y="3810000"/>
     <xdr:ext cx="7620000" cy="3810000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Graphique 0"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
+        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
@@ -1166,20 +1166,20 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="95250" y="3810000"/>
     <xdr:ext cx="7620000" cy="3810000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Graphique 0"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
+        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
@@ -1191,20 +1191,20 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="95250" y="3810000"/>
     <xdr:ext cx="7620000" cy="3810000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Graphique 0"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
+        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
@@ -1216,20 +1216,20 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="95250" y="3810000"/>
     <xdr:ext cx="7620000" cy="3810000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Graphique 0"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
+        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
@@ -1245,10 +1245,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1404,7 +1404,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1413,13 +1413,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1429,7 +1429,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1438,7 +1438,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1447,7 +1447,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1457,12 +1457,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1493,7 +1493,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1512,7 +1512,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1536,7 +1536,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col max="1" collapsed="0" width="9.10" min="1"/>
+    <col min="1" max="1" width="9.10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1607,7 +1607,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col max="1" collapsed="0" width="9.10" min="1"/>
+    <col min="1" max="1" width="9.10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1678,9 +1678,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col max="1" collapsed="0" width="9.10" min="1"/>
-    <col max="3" collapsed="0" width="9.10" min="3"/>
-    <col max="2" collapsed="0" width="9.10" min="2"/>
+    <col min="1" max="1" width="9.10"/>
+    <col min="3" max="3" width="9.10"/>
+    <col min="2" max="2" width="9.10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1696,7 +1696,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
@@ -1811,8 +1811,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col max="1" collapsed="0" width="9.10" min="1"/>
-    <col max="2" collapsed="0" width="9.10" min="2"/>
+    <col min="1" max="1" width="9.10"/>
+    <col min="2" max="2" width="9.10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1905,7 +1905,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col max="1" collapsed="0" width="9.10" min="1"/>
+    <col min="1" max="1" width="9.10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1946,7 +1946,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col max="1" collapsed="0" width="9.10" min="1"/>
+    <col min="1" max="1" width="9.10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1987,8 +1987,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col max="1" collapsed="0" width="9.10" min="1"/>
-    <col max="2" collapsed="0" width="9.10" min="2"/>
+    <col min="1" max="1" width="9.10"/>
+    <col min="2" max="2" width="9.10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/legacy_openpyxl/sample/files/charts.xlsx
+++ b/legacy_openpyxl/sample/files/charts.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <s:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <s:bookViews>
     <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </s:bookViews>
   <s:sheets>
-    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Numbers" sheetId="1" r:id="rId1"/>
-    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Negative" sheetId="2" r:id="rId2"/>
-    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Letters" sheetId="3" r:id="rId3"/>
-    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dates" sheetId="4" r:id="rId4"/>
-    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pie" sheetId="5" r:id="rId5"/>
-    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Line" sheetId="6" r:id="rId6"/>
-    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scatter" sheetId="7" r:id="rId7"/>
+    <s:sheet name="Numbers" sheetId="1" r:id="rId1"/>
+    <s:sheet name="Negative" sheetId="2" r:id="rId2"/>
+    <s:sheet name="Letters" sheetId="3" r:id="rId3"/>
+    <s:sheet name="Dates" sheetId="4" r:id="rId4"/>
+    <s:sheet name="Pie" sheetId="5" r:id="rId5"/>
+    <s:sheet name="Line" sheetId="6" r:id="rId6"/>
+    <s:sheet name="Scatter" sheetId="7" r:id="rId7"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
@@ -1066,7 +1066,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="95250" y="3810000"/>
     <xdr:ext cx="7620000" cy="3810000"/>
@@ -1076,12 +1076,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
-        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1091,7 +1091,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="95250" y="3810000"/>
     <xdr:ext cx="7620000" cy="3810000"/>
@@ -1101,12 +1101,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
-        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1116,7 +1116,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="95250" y="3810000"/>
     <xdr:ext cx="7620000" cy="3810000"/>
@@ -1126,12 +1126,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
-        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1141,7 +1141,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="95250" y="3810000"/>
     <xdr:ext cx="7620000" cy="3810000"/>
@@ -1151,12 +1151,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
-        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1166,7 +1166,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="95250" y="3810000"/>
     <xdr:ext cx="7620000" cy="3810000"/>
@@ -1176,12 +1176,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
-        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1191,7 +1191,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="95250" y="3810000"/>
     <xdr:ext cx="7620000" cy="3810000"/>
@@ -1201,12 +1201,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
-        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="95250" y="3810000"/>
     <xdr:ext cx="7620000" cy="3810000"/>
@@ -1226,12 +1226,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
-        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1245,10 +1245,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1404,7 +1404,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1413,13 +1413,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1429,7 +1429,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1438,7 +1438,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1447,7 +1447,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1457,12 +1457,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1493,7 +1493,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1512,7 +1512,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1524,68 +1524,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.10"/>
+    <col min="1" width="9.10" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="n">
+    <row spans="1:1" r="1">
+      <c t="n" r="A1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="n">
+    <row spans="1:1" r="2">
+      <c t="n" r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="n">
+    <row spans="1:1" r="3">
+      <c t="n" r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="n">
+    <row spans="1:1" r="4">
+      <c t="n" r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="n">
+    <row spans="1:1" r="5">
+      <c t="n" r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="n">
+    <row spans="1:1" r="6">
+      <c t="n" r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="n">
+    <row spans="1:1" r="7">
+      <c t="n" r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="n">
+    <row spans="1:1" r="8">
+      <c t="n" r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="n">
+    <row spans="1:1" r="9">
+      <c t="n" r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="n">
+    <row spans="1:1" r="10">
+      <c t="n" r="A10">
         <v>9</v>
       </c>
     </row>
@@ -1595,68 +1595,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.10"/>
+    <col min="1" width="9.10" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="n">
+    <row spans="1:1" r="1">
+      <c t="n" r="A1">
         <v>-5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="n">
+    <row spans="1:1" r="2">
+      <c t="n" r="A2">
         <v>-4</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="n">
+    <row spans="1:1" r="3">
+      <c t="n" r="A3">
         <v>-3</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="n">
+    <row spans="1:1" r="4">
+      <c t="n" r="A4">
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="n">
+    <row spans="1:1" r="5">
+      <c t="n" r="A5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="n">
+    <row spans="1:1" r="6">
+      <c t="n" r="A6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="n">
+    <row spans="1:1" r="7">
+      <c t="n" r="A7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="n">
+    <row spans="1:1" r="8">
+      <c t="n" r="A8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="n">
+    <row spans="1:1" r="9">
+      <c t="n" r="A9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="n">
+    <row spans="1:1" r="10">
+      <c t="n" r="A10">
         <v>4</v>
       </c>
     </row>
@@ -1666,130 +1666,130 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.10"/>
-    <col min="3" max="3" width="9.10"/>
-    <col min="2" max="2" width="9.10"/>
+    <col min="1" width="9.10" max="1"/>
+    <col min="3" width="9.10" max="3"/>
+    <col min="2" width="9.10" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row spans="1:3" r="1">
+      <c t="s" r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c t="n" r="B1">
         <v>0</v>
       </c>
-      <c r="C1" t="n">
+      <c t="n" r="C1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row spans="1:3" r="2">
+      <c t="s" r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c t="n" r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c t="n" r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row spans="1:3" r="3">
+      <c t="s" r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c t="n" r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c t="n" r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row spans="1:3" r="4">
+      <c t="s" r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c t="n" r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c t="n" r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row spans="1:3" r="5">
+      <c t="s" r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c t="n" r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
+      <c t="n" r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row spans="1:3" r="6">
+      <c t="s" r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c t="n" r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
+      <c t="n" r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row spans="1:3" r="7">
+      <c t="s" r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c t="n" r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
+      <c t="n" r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row spans="1:3" r="8">
+      <c t="s" r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
+      <c t="n" r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="n">
+      <c t="n" r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row spans="1:3" r="9">
+      <c t="s" r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
+      <c t="n" r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="n">
+      <c t="n" r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+    <row spans="1:3" r="10">
+      <c t="s" r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c t="n" r="B10">
         <v>9</v>
       </c>
-      <c r="C10" t="n">
+      <c t="n" r="C10">
         <v>9</v>
       </c>
     </row>
@@ -1799,91 +1799,91 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.10"/>
-    <col min="2" max="2" width="9.10"/>
+    <col min="1" width="9.10" max="1"/>
+    <col min="2" width="9.10" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c s="1" r="A1" t="n">
+    <row spans="1:2" r="1">
+      <c t="n" r="A1" s="1">
         <v>41275.0</v>
       </c>
-      <c r="B1" t="n">
+      <c t="n" r="B1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c s="1" r="A2" t="n">
+    <row spans="1:2" r="2">
+      <c t="n" r="A2" s="1">
         <v>41306.0</v>
       </c>
-      <c r="B2" t="n">
+      <c t="n" r="B2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c s="1" r="A3" t="n">
+    <row spans="1:2" r="3">
+      <c t="n" r="A3" s="1">
         <v>41334.0</v>
       </c>
-      <c r="B3" t="n">
+      <c t="n" r="B3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c s="1" r="A4" t="n">
+    <row spans="1:2" r="4">
+      <c t="n" r="A4" s="1">
         <v>41365.0</v>
       </c>
-      <c r="B4" t="n">
+      <c t="n" r="B4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c s="1" r="A5" t="n">
+    <row spans="1:2" r="5">
+      <c t="n" r="A5" s="1">
         <v>41395.0</v>
       </c>
-      <c r="B5" t="n">
+      <c t="n" r="B5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c s="1" r="A6" t="n">
+    <row spans="1:2" r="6">
+      <c t="n" r="A6" s="1">
         <v>41426.0</v>
       </c>
-      <c r="B6" t="n">
+      <c t="n" r="B6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c s="1" r="A7" t="n">
+    <row spans="1:2" r="7">
+      <c t="n" r="A7" s="1">
         <v>41456.0</v>
       </c>
-      <c r="B7" t="n">
+      <c t="n" r="B7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c s="1" r="A8" t="n">
+    <row spans="1:2" r="8">
+      <c t="n" r="A8" s="1">
         <v>41487.0</v>
       </c>
-      <c r="B8" t="n">
+      <c t="n" r="B8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c s="1" r="A9" t="n">
+    <row spans="1:2" r="9">
+      <c t="n" r="A9" s="1">
         <v>41518.0</v>
       </c>
-      <c r="B9" t="n">
+      <c t="n" r="B9">
         <v>9</v>
       </c>
     </row>
@@ -1893,38 +1893,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.10"/>
+    <col min="1" width="9.10" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="n">
+    <row spans="1:1" r="1">
+      <c t="n" r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="n">
+    <row spans="1:1" r="2">
+      <c t="n" r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="n">
+    <row spans="1:1" r="3">
+      <c t="n" r="A3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="n">
+    <row spans="1:1" r="4">
+      <c t="n" r="A4">
         <v>4</v>
       </c>
     </row>
@@ -1934,38 +1934,38 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.10"/>
+    <col min="1" width="9.10" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="n">
+    <row spans="1:1" r="1">
+      <c t="n" r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="n">
+    <row spans="1:1" r="2">
+      <c t="n" r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="n">
+    <row spans="1:1" r="3">
+      <c t="n" r="A3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="n">
+    <row spans="1:1" r="4">
+      <c t="n" r="A4">
         <v>4</v>
       </c>
     </row>
@@ -1975,99 +1975,99 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.10"/>
-    <col min="2" max="2" width="9.10"/>
+    <col min="1" width="9.10" max="1"/>
+    <col min="2" width="9.10" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="n">
+    <row spans="1:2" r="1">
+      <c t="n" r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c t="n" r="B1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="n">
+    <row spans="1:2" r="2">
+      <c t="n" r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c t="n" r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="n">
+    <row spans="1:2" r="3">
+      <c t="n" r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c t="n" r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="n">
+    <row spans="1:2" r="4">
+      <c t="n" r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c t="n" r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="n">
+    <row spans="1:2" r="5">
+      <c t="n" r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c t="n" r="B5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="n">
+    <row spans="1:2" r="6">
+      <c t="n" r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c t="n" r="B6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="n">
+    <row spans="1:2" r="7">
+      <c t="n" r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c t="n" r="B7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="n">
+    <row spans="1:2" r="8">
+      <c t="n" r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
+      <c t="n" r="B8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="n">
+    <row spans="1:2" r="9">
+      <c t="n" r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
+      <c t="n" r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="n">
+    <row spans="1:2" r="10">
+      <c t="n" r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c t="n" r="B10">
         <v>9</v>
       </c>
     </row>

--- a/legacy_openpyxl/sample/files/charts.xlsx
+++ b/legacy_openpyxl/sample/files/charts.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<s:workbook xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <s:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <s:bookViews>
     <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </s:bookViews>
   <s:sheets>
-    <s:sheet name="Numbers" sheetId="1" r:id="rId1"/>
-    <s:sheet name="Negative" sheetId="2" r:id="rId2"/>
-    <s:sheet name="Letters" sheetId="3" r:id="rId3"/>
-    <s:sheet name="Dates" sheetId="4" r:id="rId4"/>
-    <s:sheet name="Pie" sheetId="5" r:id="rId5"/>
-    <s:sheet name="Line" sheetId="6" r:id="rId6"/>
-    <s:sheet name="Scatter" sheetId="7" r:id="rId7"/>
+    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Numbers" sheetId="1" r:id="rId1"/>
+    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Negative" sheetId="2" r:id="rId2"/>
+    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Letters" sheetId="3" r:id="rId3"/>
+    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dates" sheetId="4" r:id="rId4"/>
+    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pie" sheetId="5" r:id="rId5"/>
+    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Line" sheetId="6" r:id="rId6"/>
+    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scatter" sheetId="7" r:id="rId7"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
@@ -1066,7 +1066,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="95250" y="3810000"/>
     <xdr:ext cx="7620000" cy="3810000"/>
@@ -1076,12 +1076,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
+        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1091,7 +1091,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="95250" y="3810000"/>
     <xdr:ext cx="7620000" cy="3810000"/>
@@ -1101,12 +1101,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
+        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1116,7 +1116,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="95250" y="3810000"/>
     <xdr:ext cx="7620000" cy="3810000"/>
@@ -1126,12 +1126,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
+        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1141,7 +1141,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="95250" y="3810000"/>
     <xdr:ext cx="7620000" cy="3810000"/>
@@ -1151,12 +1151,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
+        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1166,7 +1166,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="95250" y="3810000"/>
     <xdr:ext cx="7620000" cy="3810000"/>
@@ -1176,12 +1176,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
+        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1191,7 +1191,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="95250" y="3810000"/>
     <xdr:ext cx="7620000" cy="3810000"/>
@@ -1201,12 +1201,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
+        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="95250" y="3810000"/>
     <xdr:ext cx="7620000" cy="3810000"/>
@@ -1226,12 +1226,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
+        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1245,10 +1245,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1404,7 +1404,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1413,13 +1413,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1429,7 +1429,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1438,7 +1438,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1447,7 +1447,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1457,12 +1457,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1493,7 +1493,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1512,7 +1512,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1524,68 +1524,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" width="9.10" max="1"/>
+    <col min="1" max="1" width="9.10"/>
   </cols>
   <sheetData>
-    <row spans="1:1" r="1">
-      <c t="n" r="A1">
+    <row r="1" spans="1:1">
+      <c r="A1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row spans="1:1" r="2">
-      <c t="n" r="A2">
+    <row r="2" spans="1:1">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row spans="1:1" r="3">
-      <c t="n" r="A3">
+    <row r="3" spans="1:1">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row spans="1:1" r="4">
-      <c t="n" r="A4">
+    <row r="4" spans="1:1">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
     </row>
-    <row spans="1:1" r="5">
-      <c t="n" r="A5">
+    <row r="5" spans="1:1">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row spans="1:1" r="6">
-      <c t="n" r="A6">
+    <row r="6" spans="1:1">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row spans="1:1" r="7">
-      <c t="n" r="A7">
+    <row r="7" spans="1:1">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
     </row>
-    <row spans="1:1" r="8">
-      <c t="n" r="A8">
+    <row r="8" spans="1:1">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row spans="1:1" r="9">
-      <c t="n" r="A9">
+    <row r="9" spans="1:1">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
     </row>
-    <row spans="1:1" r="10">
-      <c t="n" r="A10">
+    <row r="10" spans="1:1">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1595,68 +1595,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" width="9.10" max="1"/>
+    <col min="1" max="1" width="9.10"/>
   </cols>
   <sheetData>
-    <row spans="1:1" r="1">
-      <c t="n" r="A1">
+    <row r="1" spans="1:1">
+      <c r="A1" t="n">
         <v>-5</v>
       </c>
     </row>
-    <row spans="1:1" r="2">
-      <c t="n" r="A2">
+    <row r="2" spans="1:1">
+      <c r="A2" t="n">
         <v>-4</v>
       </c>
     </row>
-    <row spans="1:1" r="3">
-      <c t="n" r="A3">
+    <row r="3" spans="1:1">
+      <c r="A3" t="n">
         <v>-3</v>
       </c>
     </row>
-    <row spans="1:1" r="4">
-      <c t="n" r="A4">
+    <row r="4" spans="1:1">
+      <c r="A4" t="n">
         <v>-2</v>
       </c>
     </row>
-    <row spans="1:1" r="5">
-      <c t="n" r="A5">
+    <row r="5" spans="1:1">
+      <c r="A5" t="n">
         <v>-1</v>
       </c>
     </row>
-    <row spans="1:1" r="6">
-      <c t="n" r="A6">
+    <row r="6" spans="1:1">
+      <c r="A6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row spans="1:1" r="7">
-      <c t="n" r="A7">
+    <row r="7" spans="1:1">
+      <c r="A7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row spans="1:1" r="8">
-      <c t="n" r="A8">
+    <row r="8" spans="1:1">
+      <c r="A8" t="n">
         <v>2</v>
       </c>
     </row>
-    <row spans="1:1" r="9">
-      <c t="n" r="A9">
+    <row r="9" spans="1:1">
+      <c r="A9" t="n">
         <v>3</v>
       </c>
     </row>
-    <row spans="1:1" r="10">
-      <c t="n" r="A10">
+    <row r="10" spans="1:1">
+      <c r="A10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1666,130 +1666,130 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" width="9.10" max="1"/>
-    <col min="3" width="9.10" max="3"/>
-    <col min="2" width="9.10" max="2"/>
+    <col min="1" max="1" width="9.10"/>
+    <col min="3" max="3" width="9.10"/>
+    <col min="2" max="2" width="9.10"/>
   </cols>
   <sheetData>
-    <row spans="1:3" r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c t="n" r="B1">
+      <c r="B1" t="n">
         <v>0</v>
       </c>
-      <c t="n" r="C1">
+      <c r="C1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row spans="1:3" r="2">
-      <c t="s" r="A2">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c t="n" r="B2">
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c t="n" r="C2">
+      <c r="C2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row spans="1:3" r="3">
-      <c t="s" r="A3">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c t="n" r="B3">
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c t="n" r="C3">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row spans="1:3" r="4">
-      <c t="s" r="A4">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c t="n" r="B4">
+      <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c t="n" r="C4">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
     </row>
-    <row spans="1:3" r="5">
-      <c t="s" r="A5">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c t="n" r="B5">
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c t="n" r="C5">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row spans="1:3" r="6">
-      <c t="s" r="A6">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c t="n" r="B6">
+      <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c t="n" r="C6">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row spans="1:3" r="7">
-      <c t="s" r="A7">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c t="n" r="B7">
+      <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c t="n" r="C7">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
     </row>
-    <row spans="1:3" r="8">
-      <c t="s" r="A8">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c t="n" r="B8">
+      <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c t="n" r="C8">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row spans="1:3" r="9">
-      <c t="s" r="A9">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c t="n" r="B9">
+      <c r="B9" t="n">
         <v>8</v>
       </c>
-      <c t="n" r="C9">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
     </row>
-    <row spans="1:3" r="10">
-      <c t="s" r="A10">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c t="n" r="B10">
+      <c r="B10" t="n">
         <v>9</v>
       </c>
-      <c t="n" r="C10">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1799,91 +1799,91 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" width="9.10" max="1"/>
-    <col min="2" width="9.10" max="2"/>
+    <col min="1" max="1" width="9.10"/>
+    <col min="2" max="2" width="9.10"/>
   </cols>
   <sheetData>
-    <row spans="1:2" r="1">
-      <c t="n" r="A1" s="1">
+    <row r="1" spans="1:2">
+      <c s="1" r="A1" t="n">
         <v>41275.0</v>
       </c>
-      <c t="n" r="B1">
+      <c r="B1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row spans="1:2" r="2">
-      <c t="n" r="A2" s="1">
+    <row r="2" spans="1:2">
+      <c s="1" r="A2" t="n">
         <v>41306.0</v>
       </c>
-      <c t="n" r="B2">
+      <c r="B2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row spans="1:2" r="3">
-      <c t="n" r="A3" s="1">
+    <row r="3" spans="1:2">
+      <c s="1" r="A3" t="n">
         <v>41334.0</v>
       </c>
-      <c t="n" r="B3">
+      <c r="B3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row spans="1:2" r="4">
-      <c t="n" r="A4" s="1">
+    <row r="4" spans="1:2">
+      <c s="1" r="A4" t="n">
         <v>41365.0</v>
       </c>
-      <c t="n" r="B4">
+      <c r="B4" t="n">
         <v>4</v>
       </c>
     </row>
-    <row spans="1:2" r="5">
-      <c t="n" r="A5" s="1">
+    <row r="5" spans="1:2">
+      <c s="1" r="A5" t="n">
         <v>41395.0</v>
       </c>
-      <c t="n" r="B5">
+      <c r="B5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row spans="1:2" r="6">
-      <c t="n" r="A6" s="1">
+    <row r="6" spans="1:2">
+      <c s="1" r="A6" t="n">
         <v>41426.0</v>
       </c>
-      <c t="n" r="B6">
+      <c r="B6" t="n">
         <v>6</v>
       </c>
     </row>
-    <row spans="1:2" r="7">
-      <c t="n" r="A7" s="1">
+    <row r="7" spans="1:2">
+      <c s="1" r="A7" t="n">
         <v>41456.0</v>
       </c>
-      <c t="n" r="B7">
+      <c r="B7" t="n">
         <v>7</v>
       </c>
     </row>
-    <row spans="1:2" r="8">
-      <c t="n" r="A8" s="1">
+    <row r="8" spans="1:2">
+      <c s="1" r="A8" t="n">
         <v>41487.0</v>
       </c>
-      <c t="n" r="B8">
+      <c r="B8" t="n">
         <v>8</v>
       </c>
     </row>
-    <row spans="1:2" r="9">
-      <c t="n" r="A9" s="1">
+    <row r="9" spans="1:2">
+      <c s="1" r="A9" t="n">
         <v>41518.0</v>
       </c>
-      <c t="n" r="B9">
+      <c r="B9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1893,38 +1893,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" width="9.10" max="1"/>
+    <col min="1" max="1" width="9.10"/>
   </cols>
   <sheetData>
-    <row spans="1:1" r="1">
-      <c t="n" r="A1">
+    <row r="1" spans="1:1">
+      <c r="A1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row spans="1:1" r="2">
-      <c t="n" r="A2">
+    <row r="2" spans="1:1">
+      <c r="A2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row spans="1:1" r="3">
-      <c t="n" r="A3">
+    <row r="3" spans="1:1">
+      <c r="A3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row spans="1:1" r="4">
-      <c t="n" r="A4">
+    <row r="4" spans="1:1">
+      <c r="A4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1934,38 +1934,38 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" width="9.10" max="1"/>
+    <col min="1" max="1" width="9.10"/>
   </cols>
   <sheetData>
-    <row spans="1:1" r="1">
-      <c t="n" r="A1">
+    <row r="1" spans="1:1">
+      <c r="A1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row spans="1:1" r="2">
-      <c t="n" r="A2">
+    <row r="2" spans="1:1">
+      <c r="A2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row spans="1:1" r="3">
-      <c t="n" r="A3">
+    <row r="3" spans="1:1">
+      <c r="A3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row spans="1:1" r="4">
-      <c t="n" r="A4">
+    <row r="4" spans="1:1">
+      <c r="A4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1975,99 +1975,99 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" width="9.10" max="1"/>
-    <col min="2" width="9.10" max="2"/>
+    <col min="1" max="1" width="9.10"/>
+    <col min="2" max="2" width="9.10"/>
   </cols>
   <sheetData>
-    <row spans="1:2" r="1">
-      <c t="n" r="A1">
+    <row r="1" spans="1:2">
+      <c r="A1" t="n">
         <v>0</v>
       </c>
-      <c t="n" r="B1">
+      <c r="B1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row spans="1:2" r="2">
-      <c t="n" r="A2">
+    <row r="2" spans="1:2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c t="n" r="B2">
+      <c r="B2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row spans="1:2" r="3">
-      <c t="n" r="A3">
+    <row r="3" spans="1:2">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c t="n" r="B3">
+      <c r="B3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row spans="1:2" r="4">
-      <c t="n" r="A4">
+    <row r="4" spans="1:2">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c t="n" r="B4">
+      <c r="B4" t="n">
         <v>3</v>
       </c>
     </row>
-    <row spans="1:2" r="5">
-      <c t="n" r="A5">
+    <row r="5" spans="1:2">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c t="n" r="B5">
+      <c r="B5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row spans="1:2" r="6">
-      <c t="n" r="A6">
+    <row r="6" spans="1:2">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c t="n" r="B6">
+      <c r="B6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row spans="1:2" r="7">
-      <c t="n" r="A7">
+    <row r="7" spans="1:2">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c t="n" r="B7">
+      <c r="B7" t="n">
         <v>6</v>
       </c>
     </row>
-    <row spans="1:2" r="8">
-      <c t="n" r="A8">
+    <row r="8" spans="1:2">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c t="n" r="B8">
+      <c r="B8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row spans="1:2" r="9">
-      <c t="n" r="A9">
+    <row r="9" spans="1:2">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c t="n" r="B9">
+      <c r="B9" t="n">
         <v>8</v>
       </c>
     </row>
-    <row spans="1:2" r="10">
-      <c t="n" r="A10">
+    <row r="10" spans="1:2">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c t="n" r="B10">
+      <c r="B10" t="n">
         <v>9</v>
       </c>
     </row>

--- a/legacy_openpyxl/sample/files/charts.xlsx
+++ b/legacy_openpyxl/sample/files/charts.xlsx
@@ -342,10 +342,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Letters'!$A$1:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>A</c:v>
@@ -377,8 +376,8 @@
                 <c:pt idx="9">
                   <c:v>J</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -424,10 +423,9 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Letters'!$A$1:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>A</c:v>
@@ -459,8 +457,8 @@
                 <c:pt idx="9">
                   <c:v>J</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -573,10 +571,10 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Dates'!$A$1:$A$10</c:f>
+              <c:f>'Dates'!$A$1:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>d-mmm</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>41275</c:v>
                 </c:pt>
@@ -603,19 +601,16 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>41518</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>None</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dates'!$B$1:$B$10</c:f>
+              <c:f>'Dates'!$B$1:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -642,9 +637,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>None</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -720,10 +712,10 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Pie'!$A$1:$A$10</c:f>
+              <c:f>'Pie'!$A$1:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -735,34 +727,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>None</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pie'!$A$1:$A$10</c:f>
+              <c:f>'Pie'!$A$1:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -774,24 +748,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>None</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -836,10 +792,10 @@
           <c:order val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Line'!$A$1:$A$5</c:f>
+              <c:f>'Line'!$A$1:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -851,9 +807,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>None</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,10 +882,10 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>'Scatter'!$B$1:$B$11</c:f>
+              <c:f>'Scatter'!$B$1:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -962,19 +915,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>None</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Scatter'!$A$1:$A$11</c:f>
+              <c:f>'Scatter'!$A$1:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1004,9 +954,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>None</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1679,8 +1626,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.10"/>
+    <col min="2" max="2" width="9.10"/>
     <col min="3" max="3" width="9.10"/>
-    <col min="2" max="2" width="9.10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1799,6 +1746,182 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.10"/>
+    <col min="2" max="2" width="9.10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c s="1" r="A1" t="n">
+        <v>41275.0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c s="1" r="A2" t="n">
+        <v>41306.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c s="1" r="A3" t="n">
+        <v>41334.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c s="1" r="A4" t="n">
+        <v>41365.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c s="1" r="A5" t="n">
+        <v>41395.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c s="1" r="A6" t="n">
+        <v>41426.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c s="1" r="A7" t="n">
+        <v>41456.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c s="1" r="A8" t="n">
+        <v>41487.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c s="1" r="A9" t="n">
+        <v>41518.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
@@ -1816,182 +1939,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c s="1" r="A1" t="n">
-        <v>41275.0</v>
-      </c>
-      <c r="B1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c s="1" r="A2" t="n">
-        <v>41306.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c s="1" r="A3" t="n">
-        <v>41334.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c s="1" r="A4" t="n">
-        <v>41365.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c s="1" r="A5" t="n">
-        <v>41395.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c s="1" r="A6" t="n">
-        <v>41426.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c s="1" r="A7" t="n">
-        <v>41456.0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c s="1" r="A8" t="n">
-        <v>41487.0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c s="1" r="A9" t="n">
-        <v>41518.0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
-  </sheetPr>
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
-  </sheetPr>
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.10"/>
-    <col min="2" max="2" width="9.10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
       <c r="A1" t="n">
         <v>0</v>
       </c>
